--- a/nmkgmmd_v10_brd.xlsx
+++ b/nmkgmmd_v10_brd.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28109"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Yuki/KiCad/projects/nmkgmmd_v10/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="27870" windowHeight="12465"/>
+    <workbookView xWindow="940" yWindow="440" windowWidth="27880" windowHeight="19500"/>
   </bookViews>
   <sheets>
     <sheet name="nmkgmmd_v10_brd" sheetId="1" r:id="rId1"/>
@@ -12,12 +17,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">nmkgmmd_v10_brd!$A$1:$D$156</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="263">
   <si>
     <t>Reference</t>
   </si>
@@ -657,9 +670,6 @@
   <si>
     <t xml:space="preserve"> Datasheet</t>
     <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://www.digikey.jp/product-detail/ja/jst-sales-america-inc/S3B-ZR(LF)(SN)/455-1670-ND/926577</t>
   </si>
   <si>
     <t>https://www.digikey.jp/product-detail/ja/jst-sales-america-inc/S3B-ZR(LF)(SN)/455-1670-ND/926577</t>
@@ -862,6 +872,27 @@
   </si>
   <si>
     <t>0.22u×20=4.4u&lt;4.7u で</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>千石で買える</t>
+    <rPh sb="0" eb="2">
+      <t>センゴク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カエル</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.digikey.jp/product-detail/ja/jst-sales-america-inc/S3B-ZR(LF)(SN)/455-1670-ND/926577</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>部室にある</t>
+    <rPh sb="0" eb="2">
+      <t>ブシツニ</t>
+    </rPh>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1048,7 +1079,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1240,6 +1271,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="14">
     <border>
@@ -1358,51 +1395,51 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -1543,7 +1580,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1559,38 +1596,44 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="42" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="42" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="42" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="42" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -1612,6 +1655,7 @@
     <cellStyle name="60% - アクセント 4" xfId="33" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% - アクセント 5" xfId="37" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - アクセント 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="どちらでもない" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="アクセント 1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="アクセント 2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="アクセント 3" xfId="26" builtinId="37" customBuiltin="1"/>
@@ -1621,23 +1665,22 @@
     <cellStyle name="タイトル" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="タイトル 2" xfId="43"/>
     <cellStyle name="チェック セル" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="どちらでもない" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="ハイパーリンク" xfId="42" builtinId="8"/>
     <cellStyle name="メモ" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="リンク セル" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="入力" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="出力" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="悪い" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="計算" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="警告文" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="見出し 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="見出し 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="見出し 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="見出し 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="計算方法" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="説明文" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="警告文" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="集計" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="出力" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="説明文" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="入力" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1904,7 +1947,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1914,19 +1957,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D74" sqref="D74:D75"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="143" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="62.25" customWidth="1"/>
-    <col min="4" max="4" width="99.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62.1640625" customWidth="1"/>
+    <col min="4" max="4" width="99.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1934,45 +1977,45 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="17" t="s">
         <v>107</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>108</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>61</v>
       </c>
@@ -1983,12 +2026,12 @@
         <v>63</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>38</v>
       </c>
@@ -1999,12 +2042,12 @@
         <v>20</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>36</v>
       </c>
@@ -2015,12 +2058,12 @@
         <v>20</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>111</v>
       </c>
@@ -2030,13 +2073,13 @@
       <c r="C7" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>217</v>
+      <c r="D7" s="13" t="s">
+        <v>216</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>114</v>
       </c>
@@ -2046,11 +2089,11 @@
       <c r="C8" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D8" s="5"/>
+      <c r="D8" s="13"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>115</v>
       </c>
@@ -2060,11 +2103,11 @@
       <c r="C9" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D9" s="5"/>
+      <c r="D9" s="13"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>116</v>
       </c>
@@ -2074,11 +2117,11 @@
       <c r="C10" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D10" s="5"/>
+      <c r="D10" s="13"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>148</v>
       </c>
@@ -2088,11 +2131,11 @@
       <c r="C11" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D11" s="5"/>
+      <c r="D11" s="13"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>151</v>
       </c>
@@ -2102,11 +2145,11 @@
       <c r="C12" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D12" s="5"/>
+      <c r="D12" s="13"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>152</v>
       </c>
@@ -2116,11 +2159,11 @@
       <c r="C13" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D13" s="5"/>
+      <c r="D13" s="13"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>155</v>
       </c>
@@ -2130,11 +2173,11 @@
       <c r="C14" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D14" s="5"/>
+      <c r="D14" s="13"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>168</v>
       </c>
@@ -2144,11 +2187,11 @@
       <c r="C15" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D15" s="5"/>
+      <c r="D15" s="13"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>169</v>
       </c>
@@ -2158,11 +2201,11 @@
       <c r="C16" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D16" s="5"/>
+      <c r="D16" s="13"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>170</v>
       </c>
@@ -2172,11 +2215,11 @@
       <c r="C17" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D17" s="5"/>
+      <c r="D17" s="13"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>171</v>
       </c>
@@ -2186,11 +2229,11 @@
       <c r="C18" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D18" s="5"/>
+      <c r="D18" s="13"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>196</v>
       </c>
@@ -2200,11 +2243,11 @@
       <c r="C19" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D19" s="5"/>
+      <c r="D19" s="13"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>199</v>
       </c>
@@ -2214,11 +2257,11 @@
       <c r="C20" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D20" s="5"/>
+      <c r="D20" s="13"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>200</v>
       </c>
@@ -2228,11 +2271,11 @@
       <c r="C21" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D21" s="5"/>
+      <c r="D21" s="13"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>203</v>
       </c>
@@ -2242,11 +2285,11 @@
       <c r="C22" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D22" s="5"/>
+      <c r="D22" s="13"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>81</v>
       </c>
@@ -2257,12 +2300,12 @@
         <v>77</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>75</v>
       </c>
@@ -2273,12 +2316,12 @@
         <v>77</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>13</v>
       </c>
@@ -2288,13 +2331,13 @@
       <c r="C25" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="6" t="s">
-        <v>230</v>
+      <c r="D25" s="14" t="s">
+        <v>229</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>16</v>
       </c>
@@ -2304,11 +2347,11 @@
       <c r="C26" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="6"/>
+      <c r="D26" s="14"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>17</v>
       </c>
@@ -2318,11 +2361,11 @@
       <c r="C27" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="6"/>
+      <c r="D27" s="14"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>39</v>
       </c>
@@ -2332,11 +2375,11 @@
       <c r="C28" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D28" s="6"/>
+      <c r="D28" s="14"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>35</v>
       </c>
@@ -2346,11 +2389,11 @@
       <c r="C29" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="6"/>
+      <c r="D29" s="14"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>66</v>
       </c>
@@ -2360,13 +2403,13 @@
       <c r="C30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="5" t="s">
-        <v>223</v>
+      <c r="D30" s="13" t="s">
+        <v>222</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>6</v>
       </c>
@@ -2376,11 +2419,11 @@
       <c r="C31" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="5"/>
+      <c r="D31" s="13"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>92</v>
       </c>
@@ -2390,13 +2433,13 @@
       <c r="C32" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D32" s="7" t="s">
-        <v>232</v>
+      <c r="D32" s="5" t="s">
+        <v>231</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>89</v>
       </c>
@@ -2406,12 +2449,12 @@
       <c r="C33" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D33" s="8"/>
+      <c r="D33" s="15"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A34" s="1" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="16" t="s">
         <v>88</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -2420,14 +2463,14 @@
       <c r="C34" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D34" s="7" t="s">
-        <v>231</v>
+      <c r="D34" s="5" t="s">
+        <v>230</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A35" s="1" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="16" t="s">
         <v>85</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -2436,11 +2479,11 @@
       <c r="C35" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D35" s="8"/>
+      <c r="D35" s="15"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>189</v>
       </c>
@@ -2450,13 +2493,13 @@
       <c r="C36" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D36" s="7" t="s">
-        <v>232</v>
+      <c r="D36" s="5" t="s">
+        <v>231</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>140</v>
       </c>
@@ -2466,12 +2509,12 @@
       <c r="C37" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D37" s="8"/>
+      <c r="D37" s="15"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A38" s="1" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="16" t="s">
         <v>53</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -2481,12 +2524,12 @@
         <v>55</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>40</v>
       </c>
@@ -2500,7 +2543,7 @@
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>206</v>
       </c>
@@ -2514,7 +2557,7 @@
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>158</v>
       </c>
@@ -2528,7 +2571,7 @@
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>43</v>
       </c>
@@ -2542,7 +2585,7 @@
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>32</v>
       </c>
@@ -2556,7 +2599,7 @@
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>23</v>
       </c>
@@ -2567,13 +2610,15 @@
         <v>24</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A45" s="1" t="s">
+      <c r="F44" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="16" t="s">
         <v>12</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -2583,13 +2628,13 @@
         <v>11</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A46" s="1" t="s">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B46" s="1" t="s">
@@ -2599,13 +2644,13 @@
         <v>11</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A47" s="1" t="s">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="16" t="s">
         <v>5</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -2615,13 +2660,13 @@
         <v>4</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>213</v>
+        <v>261</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A48" s="1" t="s">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="16" t="s">
         <v>2</v>
       </c>
       <c r="B48" s="1" t="s">
@@ -2631,13 +2676,13 @@
         <v>4</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A49" s="1" t="s">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="16" t="s">
         <v>26</v>
       </c>
       <c r="B49" s="1" t="s">
@@ -2647,13 +2692,13 @@
         <v>4</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A50" s="1" t="s">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="16" t="s">
         <v>25</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -2663,12 +2708,12 @@
         <v>4</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>181</v>
       </c>
@@ -2682,7 +2727,7 @@
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>180</v>
       </c>
@@ -2696,7 +2741,7 @@
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>182</v>
       </c>
@@ -2710,7 +2755,7 @@
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>183</v>
       </c>
@@ -2724,7 +2769,7 @@
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>128</v>
       </c>
@@ -2738,7 +2783,7 @@
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>125</v>
       </c>
@@ -2752,7 +2797,7 @@
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>129</v>
       </c>
@@ -2766,7 +2811,7 @@
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>130</v>
       </c>
@@ -2780,7 +2825,7 @@
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>211</v>
       </c>
@@ -2790,15 +2835,15 @@
       <c r="C59" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="F59" s="9" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D59" s="5"/>
+      <c r="E59" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>210</v>
       </c>
@@ -2808,11 +2853,11 @@
       <c r="C60" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D60" s="10"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>209</v>
       </c>
@@ -2822,11 +2867,11 @@
       <c r="C61" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D61" s="10"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="10"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>167</v>
       </c>
@@ -2836,11 +2881,11 @@
       <c r="C62" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D62" s="10"/>
-      <c r="E62" s="10"/>
-      <c r="F62" s="10"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>166</v>
       </c>
@@ -2850,11 +2895,11 @@
       <c r="C63" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D63" s="10"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="10"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>165</v>
       </c>
@@ -2864,11 +2909,11 @@
       <c r="C64" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D64" s="10"/>
-      <c r="E64" s="10"/>
-      <c r="F64" s="10"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>208</v>
       </c>
@@ -2878,11 +2923,11 @@
       <c r="C65" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D65" s="10"/>
-      <c r="E65" s="10"/>
-      <c r="F65" s="10"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>163</v>
       </c>
@@ -2892,27 +2937,27 @@
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="11"/>
-      <c r="E66" s="11"/>
-      <c r="F66" s="11"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>47</v>
       </c>
@@ -2923,13 +2968,13 @@
         <v>49</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A69" s="1" t="s">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="16" t="s">
         <v>207</v>
       </c>
       <c r="B69" s="1" t="s">
@@ -2939,29 +2984,29 @@
         <v>162</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A70" s="1" t="s">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="16" t="s">
         <v>160</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>162</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A71" s="1" t="s">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="16" t="s">
         <v>184</v>
       </c>
       <c r="B71" s="1" t="s">
@@ -2971,13 +3016,13 @@
         <v>133</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A72" s="1" t="s">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="16" t="s">
         <v>131</v>
       </c>
       <c r="B72" s="1" t="s">
@@ -2987,13 +3032,13 @@
         <v>133</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A73" s="1" t="s">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="16" t="s">
         <v>93</v>
       </c>
       <c r="B73" s="1" t="s">
@@ -3003,13 +3048,13 @@
         <v>20</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A74" s="1" t="s">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="16" t="s">
         <v>188</v>
       </c>
       <c r="B74" s="1" t="s">
@@ -3018,16 +3063,16 @@
       <c r="C74" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D74" s="12" t="s">
+      <c r="D74" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="E74" s="1"/>
+      <c r="F74" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="E74" s="1"/>
-      <c r="F74" s="9" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A75" s="1" t="s">
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="16" t="s">
         <v>137</v>
       </c>
       <c r="B75" s="1" t="s">
@@ -3036,42 +3081,42 @@
       <c r="C75" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D75" s="15"/>
+      <c r="D75" s="12"/>
       <c r="E75" s="1"/>
-      <c r="F75" s="11"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A76" s="1" t="s">
-        <v>234</v>
+      <c r="F75" s="7"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="16" t="s">
+        <v>233</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D76" s="7" t="s">
-        <v>243</v>
+      <c r="D76" s="5" t="s">
+        <v>242</v>
       </c>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A77" s="1" t="s">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="16" t="s">
         <v>139</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D77" s="11"/>
+      <c r="D77" s="7"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A78" s="1" t="s">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="16" t="s">
         <v>44</v>
       </c>
       <c r="B78" s="1" t="s">
@@ -3081,15 +3126,15 @@
         <v>20</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A79" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="16" t="s">
         <v>96</v>
       </c>
       <c r="B79" s="1" t="s">
@@ -3099,13 +3144,13 @@
         <v>20</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A80" s="1" t="s">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="16" t="s">
         <v>102</v>
       </c>
       <c r="B80" s="1" t="s">
@@ -3115,14 +3160,14 @@
         <v>101</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>104</v>
@@ -3131,12 +3176,12 @@
         <v>80</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>68</v>
       </c>
@@ -3146,13 +3191,13 @@
       <c r="C82" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D82" s="7" t="s">
-        <v>249</v>
+      <c r="D82" s="5" t="s">
+        <v>248</v>
       </c>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>70</v>
       </c>
@@ -3162,12 +3207,12 @@
       <c r="C83" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D83" s="11"/>
+      <c r="D83" s="7"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A84" s="1" t="s">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="16" t="s">
         <v>22</v>
       </c>
       <c r="B84" s="1" t="s">
@@ -3176,14 +3221,14 @@
       <c r="C84" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D84" s="7" t="s">
-        <v>250</v>
+      <c r="D84" s="5" t="s">
+        <v>249</v>
       </c>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A85" s="1" t="s">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="16" t="s">
         <v>21</v>
       </c>
       <c r="B85" s="1" t="s">
@@ -3192,12 +3237,12 @@
       <c r="C85" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D85" s="10"/>
+      <c r="D85" s="6"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A86" s="1" t="s">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="16" t="s">
         <v>18</v>
       </c>
       <c r="B86" s="1" t="s">
@@ -3206,12 +3251,12 @@
       <c r="C86" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D86" s="11"/>
+      <c r="D86" s="7"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A87" s="1" t="s">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="16" t="s">
         <v>99</v>
       </c>
       <c r="B87" s="1" t="s">
@@ -3221,13 +3266,13 @@
         <v>101</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A88" s="1" t="s">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="16" t="s">
         <v>59</v>
       </c>
       <c r="B88" s="1" t="s">
@@ -3236,14 +3281,14 @@
       <c r="C88" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D88" s="7" t="s">
-        <v>241</v>
+      <c r="D88" s="5" t="s">
+        <v>240</v>
       </c>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A89" s="1" t="s">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="16" t="s">
         <v>56</v>
       </c>
       <c r="B89" s="1" t="s">
@@ -3252,11 +3297,11 @@
       <c r="C89" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D89" s="11"/>
+      <c r="D89" s="7"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>105</v>
       </c>
@@ -3267,14 +3312,14 @@
         <v>80</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E90" s="1"/>
       <c r="F90" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.4">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>82</v>
       </c>
@@ -3284,15 +3329,15 @@
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="7" t="s">
-        <v>253</v>
+      <c r="D91" s="5" t="s">
+        <v>252</v>
       </c>
       <c r="E91" s="1"/>
-      <c r="F91" s="9" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F91" s="8" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>78</v>
       </c>
@@ -3302,11 +3347,11 @@
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D92" s="11"/>
+      <c r="D92" s="7"/>
       <c r="E92" s="1"/>
-      <c r="F92" s="11"/>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F92" s="7"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>31</v>
       </c>
@@ -3316,13 +3361,15 @@
       <c r="C93" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D93" s="7" t="s">
-        <v>240</v>
+      <c r="D93" s="5" t="s">
+        <v>239</v>
       </c>
       <c r="E93" s="1"/>
-      <c r="F93" s="1"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F93" s="8" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>174</v>
       </c>
@@ -3332,11 +3379,11 @@
       <c r="C94" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D94" s="10"/>
+      <c r="D94" s="6"/>
       <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F94" s="6"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>172</v>
       </c>
@@ -3346,11 +3393,11 @@
       <c r="C95" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D95" s="10"/>
+      <c r="D95" s="6"/>
       <c r="E95" s="1"/>
-      <c r="F95" s="1"/>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F95" s="6"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>30</v>
       </c>
@@ -3360,11 +3407,11 @@
       <c r="C96" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D96" s="10"/>
+      <c r="D96" s="6"/>
       <c r="E96" s="1"/>
-      <c r="F96" s="1"/>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F96" s="6"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>195</v>
       </c>
@@ -3374,11 +3421,11 @@
       <c r="C97" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D97" s="10"/>
+      <c r="D97" s="6"/>
       <c r="E97" s="1"/>
-      <c r="F97" s="1"/>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F97" s="6"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>198</v>
       </c>
@@ -3388,11 +3435,11 @@
       <c r="C98" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D98" s="10"/>
+      <c r="D98" s="6"/>
       <c r="E98" s="1"/>
-      <c r="F98" s="1"/>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F98" s="6"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>204</v>
       </c>
@@ -3402,11 +3449,11 @@
       <c r="C99" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D99" s="10"/>
+      <c r="D99" s="6"/>
       <c r="E99" s="1"/>
-      <c r="F99" s="1"/>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F99" s="6"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>201</v>
       </c>
@@ -3416,11 +3463,11 @@
       <c r="C100" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D100" s="10"/>
+      <c r="D100" s="6"/>
       <c r="E100" s="1"/>
-      <c r="F100" s="1"/>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F100" s="6"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>178</v>
       </c>
@@ -3430,11 +3477,11 @@
       <c r="C101" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D101" s="10"/>
+      <c r="D101" s="6"/>
       <c r="E101" s="1"/>
-      <c r="F101" s="1"/>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F101" s="6"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>176</v>
       </c>
@@ -3444,11 +3491,11 @@
       <c r="C102" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D102" s="10"/>
+      <c r="D102" s="6"/>
       <c r="E102" s="1"/>
-      <c r="F102" s="1"/>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F102" s="6"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>29</v>
       </c>
@@ -3458,11 +3505,11 @@
       <c r="C103" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D103" s="10"/>
+      <c r="D103" s="6"/>
       <c r="E103" s="1"/>
-      <c r="F103" s="1"/>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F103" s="6"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>185</v>
       </c>
@@ -3472,11 +3519,11 @@
       <c r="C104" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D104" s="10"/>
+      <c r="D104" s="6"/>
       <c r="E104" s="1"/>
-      <c r="F104" s="1"/>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F104" s="6"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>119</v>
       </c>
@@ -3486,11 +3533,11 @@
       <c r="C105" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D105" s="10"/>
+      <c r="D105" s="6"/>
       <c r="E105" s="1"/>
-      <c r="F105" s="1"/>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F105" s="6"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>117</v>
       </c>
@@ -3500,11 +3547,11 @@
       <c r="C106" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D106" s="10"/>
+      <c r="D106" s="6"/>
       <c r="E106" s="1"/>
-      <c r="F106" s="1"/>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F106" s="6"/>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>147</v>
       </c>
@@ -3514,11 +3561,11 @@
       <c r="C107" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D107" s="10"/>
+      <c r="D107" s="6"/>
       <c r="E107" s="1"/>
-      <c r="F107" s="1"/>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F107" s="6"/>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>27</v>
       </c>
@@ -3528,11 +3575,11 @@
       <c r="C108" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D108" s="10"/>
+      <c r="D108" s="6"/>
       <c r="E108" s="1"/>
-      <c r="F108" s="1"/>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F108" s="6"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>150</v>
       </c>
@@ -3542,11 +3589,11 @@
       <c r="C109" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D109" s="10"/>
+      <c r="D109" s="6"/>
       <c r="E109" s="1"/>
-      <c r="F109" s="1"/>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F109" s="6"/>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>156</v>
       </c>
@@ -3556,11 +3603,11 @@
       <c r="C110" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D110" s="10"/>
+      <c r="D110" s="6"/>
       <c r="E110" s="1"/>
-      <c r="F110" s="1"/>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F110" s="6"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>153</v>
       </c>
@@ -3570,11 +3617,11 @@
       <c r="C111" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D111" s="10"/>
+      <c r="D111" s="6"/>
       <c r="E111" s="1"/>
-      <c r="F111" s="1"/>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F111" s="6"/>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>123</v>
       </c>
@@ -3584,11 +3631,11 @@
       <c r="C112" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D112" s="10"/>
+      <c r="D112" s="6"/>
       <c r="E112" s="1"/>
-      <c r="F112" s="1"/>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F112" s="6"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>121</v>
       </c>
@@ -3598,11 +3645,11 @@
       <c r="C113" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D113" s="10"/>
+      <c r="D113" s="6"/>
       <c r="E113" s="1"/>
-      <c r="F113" s="1"/>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F113" s="6"/>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>134</v>
       </c>
@@ -3612,11 +3659,11 @@
       <c r="C114" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D114" s="10"/>
+      <c r="D114" s="6"/>
       <c r="E114" s="1"/>
-      <c r="F114" s="1"/>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F114" s="6"/>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>98</v>
       </c>
@@ -3626,11 +3673,11 @@
       <c r="C115" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D115" s="10"/>
+      <c r="D115" s="6"/>
       <c r="E115" s="1"/>
-      <c r="F115" s="1"/>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F115" s="6"/>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>95</v>
       </c>
@@ -3640,11 +3687,11 @@
       <c r="C116" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D116" s="10"/>
+      <c r="D116" s="6"/>
       <c r="E116" s="1"/>
-      <c r="F116" s="1"/>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F116" s="6"/>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>110</v>
       </c>
@@ -3654,11 +3701,11 @@
       <c r="C117" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D117" s="10"/>
+      <c r="D117" s="6"/>
       <c r="E117" s="1"/>
-      <c r="F117" s="1"/>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F117" s="6"/>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>109</v>
       </c>
@@ -3668,11 +3715,11 @@
       <c r="C118" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D118" s="10"/>
+      <c r="D118" s="6"/>
       <c r="E118" s="1"/>
-      <c r="F118" s="1"/>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F118" s="6"/>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>60</v>
       </c>
@@ -3682,11 +3729,11 @@
       <c r="C119" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D119" s="10"/>
+      <c r="D119" s="6"/>
       <c r="E119" s="1"/>
-      <c r="F119" s="1"/>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F119" s="6"/>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>46</v>
       </c>
@@ -3696,12 +3743,12 @@
       <c r="C120" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D120" s="11"/>
+      <c r="D120" s="7"/>
       <c r="E120" s="1"/>
-      <c r="F120" s="1"/>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A121" s="1" t="s">
+      <c r="F120" s="7"/>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="16" t="s">
         <v>192</v>
       </c>
       <c r="B121" s="1" t="s">
@@ -3710,16 +3757,16 @@
       <c r="C121" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D121" s="12" t="s">
+      <c r="D121" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="E121" s="1"/>
+      <c r="F121" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="E121" s="1"/>
-      <c r="F121" s="9" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A122" s="1" t="s">
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="16" t="s">
         <v>191</v>
       </c>
       <c r="B122" s="1" t="s">
@@ -3728,12 +3775,12 @@
       <c r="C122" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D122" s="13"/>
+      <c r="D122" s="10"/>
       <c r="E122" s="1"/>
-      <c r="F122" s="10"/>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A123" s="1" t="s">
+      <c r="F122" s="6"/>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="16" t="s">
         <v>144</v>
       </c>
       <c r="B123" s="1" t="s">
@@ -3742,12 +3789,12 @@
       <c r="C123" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D123" s="13"/>
+      <c r="D123" s="10"/>
       <c r="E123" s="1"/>
-      <c r="F123" s="10"/>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A124" s="1" t="s">
+      <c r="F123" s="6"/>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="16" t="s">
         <v>142</v>
       </c>
       <c r="B124" s="1" t="s">
@@ -3756,11 +3803,11 @@
       <c r="C124" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D124" s="14"/>
+      <c r="D124" s="11"/>
       <c r="E124" s="1"/>
-      <c r="F124" s="11"/>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F124" s="7"/>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>72</v>
       </c>
@@ -3770,13 +3817,15 @@
       <c r="C125" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D125" s="7" t="s">
-        <v>239</v>
+      <c r="D125" s="5" t="s">
+        <v>238</v>
       </c>
       <c r="E125" s="1"/>
-      <c r="F125" s="1"/>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F125" s="8" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>73</v>
       </c>
@@ -3786,11 +3835,11 @@
       <c r="C126" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D126" s="10"/>
+      <c r="D126" s="6"/>
       <c r="E126" s="1"/>
-      <c r="F126" s="1"/>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F126" s="6"/>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>74</v>
       </c>
@@ -3800,11 +3849,11 @@
       <c r="C127" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D127" s="10"/>
+      <c r="D127" s="6"/>
       <c r="E127" s="1"/>
-      <c r="F127" s="1"/>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F127" s="6"/>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>71</v>
       </c>
@@ -3814,11 +3863,11 @@
       <c r="C128" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D128" s="10"/>
+      <c r="D128" s="6"/>
       <c r="E128" s="1"/>
-      <c r="F128" s="1"/>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F128" s="6"/>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>193</v>
       </c>
@@ -3828,11 +3877,11 @@
       <c r="C129" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D129" s="10"/>
+      <c r="D129" s="6"/>
       <c r="E129" s="1"/>
-      <c r="F129" s="1"/>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F129" s="6"/>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>190</v>
       </c>
@@ -3842,11 +3891,11 @@
       <c r="C130" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D130" s="10"/>
+      <c r="D130" s="6"/>
       <c r="E130" s="1"/>
-      <c r="F130" s="1"/>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F130" s="6"/>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>186</v>
       </c>
@@ -3856,11 +3905,11 @@
       <c r="C131" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D131" s="10"/>
+      <c r="D131" s="6"/>
       <c r="E131" s="1"/>
-      <c r="F131" s="1"/>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F131" s="6"/>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>145</v>
       </c>
@@ -3870,11 +3919,11 @@
       <c r="C132" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D132" s="10"/>
+      <c r="D132" s="6"/>
       <c r="E132" s="1"/>
-      <c r="F132" s="1"/>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F132" s="6"/>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>141</v>
       </c>
@@ -3884,11 +3933,11 @@
       <c r="C133" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D133" s="10"/>
+      <c r="D133" s="6"/>
       <c r="E133" s="1"/>
-      <c r="F133" s="1"/>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F133" s="6"/>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>135</v>
       </c>
@@ -3898,11 +3947,11 @@
       <c r="C134" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D134" s="10"/>
+      <c r="D134" s="6"/>
       <c r="E134" s="1"/>
-      <c r="F134" s="1"/>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F134" s="6"/>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>83</v>
       </c>
@@ -3912,11 +3961,11 @@
       <c r="C135" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D135" s="10"/>
+      <c r="D135" s="6"/>
       <c r="E135" s="1"/>
-      <c r="F135" s="1"/>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F135" s="6"/>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>84</v>
       </c>
@@ -3926,11 +3975,11 @@
       <c r="C136" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D136" s="10"/>
+      <c r="D136" s="6"/>
       <c r="E136" s="1"/>
-      <c r="F136" s="1"/>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F136" s="6"/>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>67</v>
       </c>
@@ -3940,11 +3989,11 @@
       <c r="C137" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D137" s="10"/>
+      <c r="D137" s="6"/>
       <c r="E137" s="1"/>
-      <c r="F137" s="1"/>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F137" s="6"/>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>64</v>
       </c>
@@ -3954,11 +4003,11 @@
       <c r="C138" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D138" s="11"/>
+      <c r="D138" s="7"/>
       <c r="E138" s="1"/>
-      <c r="F138" s="1"/>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F138" s="7"/>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>175</v>
       </c>
@@ -3968,13 +4017,13 @@
       <c r="C139" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D139" s="7" t="s">
-        <v>237</v>
+      <c r="D139" s="5" t="s">
+        <v>236</v>
       </c>
       <c r="E139" s="1"/>
       <c r="F139" s="1"/>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>173</v>
       </c>
@@ -3984,11 +4033,11 @@
       <c r="C140" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D140" s="10"/>
+      <c r="D140" s="6"/>
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>194</v>
       </c>
@@ -3998,11 +4047,11 @@
       <c r="C141" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D141" s="10"/>
+      <c r="D141" s="6"/>
       <c r="E141" s="1"/>
       <c r="F141" s="1"/>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>197</v>
       </c>
@@ -4012,11 +4061,11 @@
       <c r="C142" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D142" s="10"/>
+      <c r="D142" s="6"/>
       <c r="E142" s="1"/>
       <c r="F142" s="1"/>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>205</v>
       </c>
@@ -4026,11 +4075,11 @@
       <c r="C143" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D143" s="10"/>
+      <c r="D143" s="6"/>
       <c r="E143" s="1"/>
       <c r="F143" s="1"/>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>202</v>
       </c>
@@ -4040,11 +4089,11 @@
       <c r="C144" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D144" s="10"/>
+      <c r="D144" s="6"/>
       <c r="E144" s="1"/>
       <c r="F144" s="1"/>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>179</v>
       </c>
@@ -4054,11 +4103,11 @@
       <c r="C145" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D145" s="10"/>
+      <c r="D145" s="6"/>
       <c r="E145" s="1"/>
       <c r="F145" s="1"/>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>177</v>
       </c>
@@ -4068,11 +4117,11 @@
       <c r="C146" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D146" s="10"/>
+      <c r="D146" s="6"/>
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>120</v>
       </c>
@@ -4082,11 +4131,11 @@
       <c r="C147" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D147" s="10"/>
+      <c r="D147" s="6"/>
       <c r="E147" s="1"/>
       <c r="F147" s="1"/>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>118</v>
       </c>
@@ -4096,11 +4145,11 @@
       <c r="C148" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D148" s="10"/>
+      <c r="D148" s="6"/>
       <c r="E148" s="1"/>
       <c r="F148" s="1"/>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>146</v>
       </c>
@@ -4110,11 +4159,11 @@
       <c r="C149" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D149" s="10"/>
+      <c r="D149" s="6"/>
       <c r="E149" s="1"/>
       <c r="F149" s="1"/>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>149</v>
       </c>
@@ -4124,11 +4173,11 @@
       <c r="C150" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D150" s="10"/>
+      <c r="D150" s="6"/>
       <c r="E150" s="1"/>
       <c r="F150" s="1"/>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>157</v>
       </c>
@@ -4138,11 +4187,11 @@
       <c r="C151" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D151" s="10"/>
+      <c r="D151" s="6"/>
       <c r="E151" s="1"/>
       <c r="F151" s="1"/>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>154</v>
       </c>
@@ -4152,11 +4201,11 @@
       <c r="C152" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D152" s="10"/>
+      <c r="D152" s="6"/>
       <c r="E152" s="1"/>
       <c r="F152" s="1"/>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>124</v>
       </c>
@@ -4166,11 +4215,11 @@
       <c r="C153" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D153" s="10"/>
+      <c r="D153" s="6"/>
       <c r="E153" s="1"/>
       <c r="F153" s="1"/>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>122</v>
       </c>
@@ -4180,11 +4229,11 @@
       <c r="C154" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D154" s="11"/>
+      <c r="D154" s="7"/>
       <c r="E154" s="1"/>
       <c r="F154" s="1"/>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>187</v>
       </c>
@@ -4194,13 +4243,13 @@
       <c r="C155" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D155" s="7" t="s">
-        <v>238</v>
+      <c r="D155" s="5" t="s">
+        <v>237</v>
       </c>
       <c r="E155" s="1"/>
       <c r="F155" s="1"/>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>136</v>
       </c>
@@ -4210,7 +4259,7 @@
       <c r="C156" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D156" s="11"/>
+      <c r="D156" s="7"/>
       <c r="E156" s="1"/>
       <c r="F156" s="1"/>
     </row>
@@ -4220,12 +4269,19 @@
       <sortCondition descending="1" ref="B1:B156"/>
     </sortState>
   </autoFilter>
-  <mergeCells count="23">
-    <mergeCell ref="D84:D86"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="D121:D124"/>
-    <mergeCell ref="F121:F124"/>
+  <mergeCells count="25">
+    <mergeCell ref="F125:F138"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D7:D22"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="D139:D154"/>
+    <mergeCell ref="D155:D156"/>
+    <mergeCell ref="D125:D138"/>
+    <mergeCell ref="D93:D120"/>
+    <mergeCell ref="D88:D89"/>
     <mergeCell ref="D59:D66"/>
     <mergeCell ref="E59:E66"/>
     <mergeCell ref="F59:F66"/>
@@ -4233,17 +4289,12 @@
     <mergeCell ref="D82:D83"/>
     <mergeCell ref="D74:D75"/>
     <mergeCell ref="F74:F75"/>
-    <mergeCell ref="D139:D154"/>
-    <mergeCell ref="D155:D156"/>
-    <mergeCell ref="D125:D138"/>
-    <mergeCell ref="D93:D120"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="D7:D22"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="D84:D86"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="D121:D124"/>
+    <mergeCell ref="F121:F124"/>
+    <mergeCell ref="F93:F120"/>
   </mergeCells>
   <phoneticPr fontId="18"/>
   <hyperlinks>

--- a/nmkgmmd_v10_brd.xlsx
+++ b/nmkgmmd_v10_brd.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28109"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Yuki/KiCad/projects/nmkgmmd_v10/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="940" yWindow="440" windowWidth="27880" windowHeight="19500"/>
+    <workbookView xWindow="945" yWindow="435" windowWidth="27885" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="nmkgmmd_v10_brd" sheetId="1" r:id="rId1"/>
@@ -19,9 +14,6 @@
   </definedNames>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -30,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="264">
   <si>
     <t>Reference</t>
   </si>
@@ -143,9 +135,6 @@
     <t>R1</t>
   </si>
   <si>
-    <t>R</t>
-  </si>
-  <si>
     <t>R2</t>
   </si>
   <si>
@@ -446,9 +435,6 @@
     <t>C20</t>
   </si>
   <si>
-    <t>5.66u</t>
-  </si>
-  <si>
     <t>C19</t>
   </si>
   <si>
@@ -459,9 +445,6 @@
   </si>
   <si>
     <t>C21</t>
-  </si>
-  <si>
-    <t>0.283u</t>
   </si>
   <si>
     <t>C22</t>
@@ -893,6 +876,22 @@
     <rPh sb="0" eb="2">
       <t>ブシツニ</t>
     </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>0.22u</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>1k</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>1k</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>4.4u</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1596,44 +1595,44 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="42" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="42" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="42" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="42" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="42" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -1655,7 +1654,6 @@
     <cellStyle name="60% - アクセント 4" xfId="33" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% - アクセント 5" xfId="37" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - アクセント 6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="どちらでもない" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="アクセント 1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="アクセント 2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="アクセント 3" xfId="26" builtinId="37" customBuiltin="1"/>
@@ -1665,22 +1663,23 @@
     <cellStyle name="タイトル" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="タイトル 2" xfId="43"/>
     <cellStyle name="チェック セル" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="どちらでもない" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="ハイパーリンク" xfId="42" builtinId="8"/>
     <cellStyle name="メモ" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="リンク セル" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="入力" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="出力" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="悪い" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="計算" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="警告文" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="見出し 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="見出し 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="見出し 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="見出し 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="計算方法" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="集計" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="出力" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="説明文" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="警告文" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="集計" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="入力" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1947,7 +1946,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1957,19 +1956,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="143" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="62.1640625" customWidth="1"/>
-    <col min="4" max="4" width="99.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62.125" customWidth="1"/>
+    <col min="4" max="4" width="99.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1977,351 +1976,351 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="C2" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D3" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>37</v>
+        <v>261</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>37</v>
+        <v>262</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>216</v>
+      <c r="D7" s="10" t="s">
+        <v>213</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D8" s="13"/>
+      <c r="D8" s="10"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D9" s="13"/>
+      <c r="D9" s="10"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D10" s="13"/>
+      <c r="D10" s="10"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D11" s="13"/>
+      <c r="D11" s="10"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D12" s="13"/>
+      <c r="D12" s="10"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D13" s="13"/>
+      <c r="D13" s="10"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D14" s="13"/>
+      <c r="D14" s="10"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D15" s="13"/>
+      <c r="D15" s="10"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D16" s="13"/>
+      <c r="D16" s="10"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D17" s="13"/>
+      <c r="D17" s="10"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D18" s="13"/>
+      <c r="D18" s="10"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D19" s="13"/>
+      <c r="D19" s="10"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D20" s="13"/>
+      <c r="D20" s="10"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D21" s="13"/>
+      <c r="D21" s="10"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D22" s="13"/>
+      <c r="D22" s="10"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="D23" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="D24" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>13</v>
       </c>
@@ -2331,13 +2330,13 @@
       <c r="C25" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="14" t="s">
-        <v>229</v>
+      <c r="D25" s="11" t="s">
+        <v>226</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>16</v>
       </c>
@@ -2347,11 +2346,11 @@
       <c r="C26" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="14"/>
+      <c r="D26" s="11"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>17</v>
       </c>
@@ -2361,13 +2360,13 @@
       <c r="C27" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="14"/>
+      <c r="D27" s="11"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>14</v>
@@ -2375,11 +2374,11 @@
       <c r="C28" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D28" s="14"/>
+      <c r="D28" s="11"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
         <v>35</v>
       </c>
@@ -2389,13 +2388,13 @@
       <c r="C29" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="14"/>
+      <c r="D29" s="11"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>7</v>
@@ -2403,13 +2402,13 @@
       <c r="C30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="13" t="s">
-        <v>222</v>
+      <c r="D30" s="10" t="s">
+        <v>219</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
         <v>6</v>
       </c>
@@ -2419,173 +2418,173 @@
       <c r="C31" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="13"/>
+      <c r="D31" s="10"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>231</v>
+      <c r="D32" s="12" t="s">
+        <v>228</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D33" s="15"/>
+      <c r="D33" s="13"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="16" t="s">
-        <v>88</v>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A34" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>230</v>
+      <c r="D34" s="12" t="s">
+        <v>227</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="16" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A35" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D35" s="15"/>
+      <c r="D35" s="13"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>231</v>
+        <v>90</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>228</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D37" s="15"/>
+        <v>90</v>
+      </c>
+      <c r="D37" s="13"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="16" t="s">
+    <row r="38" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="D38" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>32</v>
       </c>
@@ -2599,7 +2598,7 @@
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
         <v>23</v>
       </c>
@@ -2610,15 +2609,15 @@
         <v>24</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="16" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -2628,13 +2627,13 @@
         <v>11</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="16" t="s">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A46" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B46" s="1" t="s">
@@ -2644,13 +2643,13 @@
         <v>11</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="16" t="s">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A47" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -2660,13 +2659,13 @@
         <v>4</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="16" t="s">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A48" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B48" s="1" t="s">
@@ -2676,13 +2675,13 @@
         <v>4</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="16" t="s">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A49" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B49" s="1" t="s">
@@ -2692,13 +2691,13 @@
         <v>4</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="16" t="s">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A50" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -2708,511 +2707,511 @@
         <v>4</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B51" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A52" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A54" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A55" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A56" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="C56" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A57" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B57" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A58" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A59" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A60" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A61" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A62" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="F59" s="8" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>167</v>
-      </c>
       <c r="B62" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A63" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
-      <c r="F63" s="6"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A64" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A65" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="6"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A66" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="7"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A67" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A68" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="C68" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="D68" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="16" t="s">
-        <v>207</v>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A69" s="5" t="s">
+        <v>204</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="16" t="s">
-        <v>160</v>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A70" s="5" t="s">
+        <v>157</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="16" t="s">
-        <v>184</v>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A71" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="B71" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>133</v>
-      </c>
       <c r="D71" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="16" t="s">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A72" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="C72" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C72" s="1" t="s">
-        <v>133</v>
-      </c>
       <c r="D72" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="16" t="s">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A73" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="C73" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="16" t="s">
-        <v>188</v>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A74" s="5" t="s">
+        <v>185</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>138</v>
+        <v>263</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D74" s="9" t="s">
-        <v>258</v>
+        <v>79</v>
+      </c>
+      <c r="D74" s="14" t="s">
+        <v>255</v>
       </c>
       <c r="E74" s="1"/>
-      <c r="F74" s="8" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="16" t="s">
-        <v>137</v>
+      <c r="F74" s="7" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A75" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>138</v>
+        <v>263</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D75" s="12"/>
+        <v>79</v>
+      </c>
+      <c r="D75" s="15"/>
       <c r="E75" s="1"/>
-      <c r="F75" s="7"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="16" t="s">
-        <v>233</v>
+      <c r="F75" s="9"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A76" s="5" t="s">
+        <v>230</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>242</v>
+        <v>57</v>
+      </c>
+      <c r="D76" s="12" t="s">
+        <v>239</v>
       </c>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="16" t="s">
-        <v>139</v>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A77" s="5" t="s">
+        <v>137</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D77" s="7"/>
+        <v>57</v>
+      </c>
+      <c r="D77" s="9"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="16" t="s">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A78" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B78" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="C78" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="16" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A79" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B79" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="C79" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="16" t="s">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A80" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="C80" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A81" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A82" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B82" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="C82" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D82" s="5" t="s">
-        <v>248</v>
+        <v>57</v>
+      </c>
+      <c r="D82" s="12" t="s">
+        <v>245</v>
       </c>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A83" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D83" s="7"/>
+        <v>57</v>
+      </c>
+      <c r="D83" s="9"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="16" t="s">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A84" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B84" s="1" t="s">
@@ -3221,14 +3220,14 @@
       <c r="C84" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D84" s="5" t="s">
-        <v>249</v>
+      <c r="D84" s="12" t="s">
+        <v>246</v>
       </c>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="16" t="s">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A85" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B85" s="1" t="s">
@@ -3237,12 +3236,12 @@
       <c r="C85" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D85" s="6"/>
+      <c r="D85" s="8"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="16" t="s">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A86" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B86" s="1" t="s">
@@ -3251,107 +3250,107 @@
       <c r="C86" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D86" s="7"/>
+      <c r="D86" s="9"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="16" t="s">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A87" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="C87" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C87" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="D87" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="16" t="s">
-        <v>59</v>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A88" s="5" t="s">
+        <v>58</v>
       </c>
       <c r="B88" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C88" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C88" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D88" s="5" t="s">
-        <v>240</v>
+      <c r="D88" s="12" t="s">
+        <v>237</v>
       </c>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="16" t="s">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A89" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B89" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="C89" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C89" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D89" s="7"/>
+      <c r="D89" s="9"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A90" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B90" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C90" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="D90" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E90" s="1"/>
       <c r="F90" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A91" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B91" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C91" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D91" s="5" t="s">
+      <c r="D91" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="E91" s="1"/>
+      <c r="F91" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="E91" s="1"/>
-      <c r="F91" s="8" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A92" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B92" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="C92" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C92" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D92" s="7"/>
+      <c r="D92" s="9"/>
       <c r="E92" s="1"/>
-      <c r="F92" s="7"/>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F92" s="9"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A93" s="1" t="s">
         <v>31</v>
       </c>
@@ -3361,17 +3360,17 @@
       <c r="C93" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D93" s="5" t="s">
-        <v>239</v>
+      <c r="D93" s="12" t="s">
+        <v>236</v>
       </c>
       <c r="E93" s="1"/>
-      <c r="F93" s="8" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F93" s="7" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A94" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>28</v>
@@ -3379,13 +3378,13 @@
       <c r="C94" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D94" s="6"/>
+      <c r="D94" s="8"/>
       <c r="E94" s="1"/>
-      <c r="F94" s="6"/>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F94" s="8"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A95" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>28</v>
@@ -3393,11 +3392,11 @@
       <c r="C95" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D95" s="6"/>
+      <c r="D95" s="8"/>
       <c r="E95" s="1"/>
-      <c r="F95" s="6"/>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F95" s="8"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A96" s="1" t="s">
         <v>30</v>
       </c>
@@ -3407,13 +3406,13 @@
       <c r="C96" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D96" s="6"/>
+      <c r="D96" s="8"/>
       <c r="E96" s="1"/>
-      <c r="F96" s="6"/>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F96" s="8"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A97" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>28</v>
@@ -3421,13 +3420,13 @@
       <c r="C97" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D97" s="6"/>
+      <c r="D97" s="8"/>
       <c r="E97" s="1"/>
-      <c r="F97" s="6"/>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F97" s="8"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A98" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>28</v>
@@ -3435,13 +3434,13 @@
       <c r="C98" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D98" s="6"/>
+      <c r="D98" s="8"/>
       <c r="E98" s="1"/>
-      <c r="F98" s="6"/>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F98" s="8"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A99" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>28</v>
@@ -3449,13 +3448,13 @@
       <c r="C99" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D99" s="6"/>
+      <c r="D99" s="8"/>
       <c r="E99" s="1"/>
-      <c r="F99" s="6"/>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F99" s="8"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A100" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>28</v>
@@ -3463,13 +3462,13 @@
       <c r="C100" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D100" s="6"/>
+      <c r="D100" s="8"/>
       <c r="E100" s="1"/>
-      <c r="F100" s="6"/>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F100" s="8"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A101" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>28</v>
@@ -3477,13 +3476,13 @@
       <c r="C101" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D101" s="6"/>
+      <c r="D101" s="8"/>
       <c r="E101" s="1"/>
-      <c r="F101" s="6"/>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F101" s="8"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A102" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>28</v>
@@ -3491,11 +3490,11 @@
       <c r="C102" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D102" s="6"/>
+      <c r="D102" s="8"/>
       <c r="E102" s="1"/>
-      <c r="F102" s="6"/>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F102" s="8"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A103" s="1" t="s">
         <v>29</v>
       </c>
@@ -3505,13 +3504,13 @@
       <c r="C103" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D103" s="6"/>
+      <c r="D103" s="8"/>
       <c r="E103" s="1"/>
-      <c r="F103" s="6"/>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F103" s="8"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A104" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>28</v>
@@ -3519,13 +3518,13 @@
       <c r="C104" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D104" s="6"/>
+      <c r="D104" s="8"/>
       <c r="E104" s="1"/>
-      <c r="F104" s="6"/>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F104" s="8"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A105" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>28</v>
@@ -3533,13 +3532,13 @@
       <c r="C105" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D105" s="6"/>
+      <c r="D105" s="8"/>
       <c r="E105" s="1"/>
-      <c r="F105" s="6"/>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F105" s="8"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A106" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>28</v>
@@ -3547,13 +3546,13 @@
       <c r="C106" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D106" s="6"/>
+      <c r="D106" s="8"/>
       <c r="E106" s="1"/>
-      <c r="F106" s="6"/>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F106" s="8"/>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A107" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>28</v>
@@ -3561,11 +3560,11 @@
       <c r="C107" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D107" s="6"/>
+      <c r="D107" s="8"/>
       <c r="E107" s="1"/>
-      <c r="F107" s="6"/>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F107" s="8"/>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A108" s="1" t="s">
         <v>27</v>
       </c>
@@ -3575,13 +3574,13 @@
       <c r="C108" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D108" s="6"/>
+      <c r="D108" s="8"/>
       <c r="E108" s="1"/>
-      <c r="F108" s="6"/>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F108" s="8"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A109" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>28</v>
@@ -3589,13 +3588,13 @@
       <c r="C109" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D109" s="6"/>
+      <c r="D109" s="8"/>
       <c r="E109" s="1"/>
-      <c r="F109" s="6"/>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F109" s="8"/>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A110" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>28</v>
@@ -3603,13 +3602,13 @@
       <c r="C110" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D110" s="6"/>
+      <c r="D110" s="8"/>
       <c r="E110" s="1"/>
-      <c r="F110" s="6"/>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F110" s="8"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A111" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>28</v>
@@ -3617,13 +3616,13 @@
       <c r="C111" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D111" s="6"/>
+      <c r="D111" s="8"/>
       <c r="E111" s="1"/>
-      <c r="F111" s="6"/>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F111" s="8"/>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A112" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>28</v>
@@ -3631,13 +3630,13 @@
       <c r="C112" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D112" s="6"/>
+      <c r="D112" s="8"/>
       <c r="E112" s="1"/>
-      <c r="F112" s="6"/>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F112" s="8"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A113" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>28</v>
@@ -3645,13 +3644,13 @@
       <c r="C113" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D113" s="6"/>
+      <c r="D113" s="8"/>
       <c r="E113" s="1"/>
-      <c r="F113" s="6"/>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F113" s="8"/>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A114" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>28</v>
@@ -3659,13 +3658,13 @@
       <c r="C114" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D114" s="6"/>
+      <c r="D114" s="8"/>
       <c r="E114" s="1"/>
-      <c r="F114" s="6"/>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F114" s="8"/>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A115" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>28</v>
@@ -3673,13 +3672,13 @@
       <c r="C115" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D115" s="6"/>
+      <c r="D115" s="8"/>
       <c r="E115" s="1"/>
-      <c r="F115" s="6"/>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F115" s="8"/>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A116" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>28</v>
@@ -3687,13 +3686,13 @@
       <c r="C116" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D116" s="6"/>
+      <c r="D116" s="8"/>
       <c r="E116" s="1"/>
-      <c r="F116" s="6"/>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F116" s="8"/>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A117" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>28</v>
@@ -3701,13 +3700,13 @@
       <c r="C117" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D117" s="6"/>
+      <c r="D117" s="8"/>
       <c r="E117" s="1"/>
-      <c r="F117" s="6"/>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F117" s="8"/>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A118" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>28</v>
@@ -3715,13 +3714,13 @@
       <c r="C118" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D118" s="6"/>
+      <c r="D118" s="8"/>
       <c r="E118" s="1"/>
-      <c r="F118" s="6"/>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F118" s="8"/>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A119" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>28</v>
@@ -3729,13 +3728,13 @@
       <c r="C119" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D119" s="6"/>
+      <c r="D119" s="8"/>
       <c r="E119" s="1"/>
-      <c r="F119" s="6"/>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F119" s="8"/>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A120" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>28</v>
@@ -3743,273 +3742,273 @@
       <c r="C120" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D120" s="7"/>
+      <c r="D120" s="9"/>
       <c r="E120" s="1"/>
-      <c r="F120" s="7"/>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="16" t="s">
-        <v>192</v>
+      <c r="F120" s="9"/>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A121" s="5" t="s">
+        <v>189</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>143</v>
+        <v>260</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D121" s="9" t="s">
-        <v>256</v>
+        <v>57</v>
+      </c>
+      <c r="D121" s="14" t="s">
+        <v>253</v>
       </c>
       <c r="E121" s="1"/>
-      <c r="F121" s="8" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" s="16" t="s">
-        <v>191</v>
+      <c r="F121" s="7" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A122" s="5" t="s">
+        <v>188</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>143</v>
+        <v>260</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D122" s="10"/>
+        <v>57</v>
+      </c>
+      <c r="D122" s="16"/>
       <c r="E122" s="1"/>
-      <c r="F122" s="6"/>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" s="16" t="s">
-        <v>144</v>
+      <c r="F122" s="8"/>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A123" s="5" t="s">
+        <v>141</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>143</v>
+        <v>260</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D123" s="10"/>
+        <v>57</v>
+      </c>
+      <c r="D123" s="16"/>
       <c r="E123" s="1"/>
-      <c r="F123" s="6"/>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="16" t="s">
+      <c r="F123" s="8"/>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A124" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D124" s="17"/>
+      <c r="E124" s="1"/>
+      <c r="F124" s="9"/>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A125" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D125" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="E125" s="1"/>
+      <c r="F125" s="7" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A126" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D126" s="8"/>
+      <c r="E126" s="1"/>
+      <c r="F126" s="8"/>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A127" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D127" s="8"/>
+      <c r="E127" s="1"/>
+      <c r="F127" s="8"/>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A128" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D128" s="8"/>
+      <c r="E128" s="1"/>
+      <c r="F128" s="8"/>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A129" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D129" s="8"/>
+      <c r="E129" s="1"/>
+      <c r="F129" s="8"/>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A130" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D130" s="8"/>
+      <c r="E130" s="1"/>
+      <c r="F130" s="8"/>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A131" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D131" s="8"/>
+      <c r="E131" s="1"/>
+      <c r="F131" s="8"/>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A132" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B124" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D124" s="11"/>
-      <c r="E124" s="1"/>
-      <c r="F124" s="7"/>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D125" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="E125" s="1"/>
-      <c r="F125" s="8" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D126" s="6"/>
-      <c r="E126" s="1"/>
-      <c r="F126" s="6"/>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D127" s="6"/>
-      <c r="E127" s="1"/>
-      <c r="F127" s="6"/>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D128" s="6"/>
-      <c r="E128" s="1"/>
-      <c r="F128" s="6"/>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D129" s="6"/>
-      <c r="E129" s="1"/>
-      <c r="F129" s="6"/>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D130" s="6"/>
-      <c r="E130" s="1"/>
-      <c r="F130" s="6"/>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D131" s="6"/>
-      <c r="E131" s="1"/>
-      <c r="F131" s="6"/>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="s">
-        <v>145</v>
-      </c>
       <c r="B132" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D132" s="6"/>
+        <v>57</v>
+      </c>
+      <c r="D132" s="8"/>
       <c r="E132" s="1"/>
-      <c r="F132" s="6"/>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F132" s="8"/>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A133" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D133" s="6"/>
+        <v>57</v>
+      </c>
+      <c r="D133" s="8"/>
       <c r="E133" s="1"/>
-      <c r="F133" s="6"/>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F133" s="8"/>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A134" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D134" s="6"/>
+        <v>57</v>
+      </c>
+      <c r="D134" s="8"/>
       <c r="E134" s="1"/>
-      <c r="F134" s="6"/>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F134" s="8"/>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A135" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D135" s="8"/>
+      <c r="E135" s="1"/>
+      <c r="F135" s="8"/>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A136" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B135" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D135" s="6"/>
-      <c r="E135" s="1"/>
-      <c r="F135" s="6"/>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="B136" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D136" s="6"/>
+        <v>57</v>
+      </c>
+      <c r="D136" s="8"/>
       <c r="E136" s="1"/>
-      <c r="F136" s="6"/>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F136" s="8"/>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A137" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D137" s="6"/>
+        <v>57</v>
+      </c>
+      <c r="D137" s="8"/>
       <c r="E137" s="1"/>
-      <c r="F137" s="6"/>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F137" s="8"/>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A138" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B138" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B138" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="C138" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D138" s="7"/>
+        <v>57</v>
+      </c>
+      <c r="D138" s="9"/>
       <c r="E138" s="1"/>
-      <c r="F138" s="7"/>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F138" s="9"/>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A139" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B139" s="1">
         <v>10</v>
@@ -4017,15 +4016,15 @@
       <c r="C139" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D139" s="5" t="s">
-        <v>236</v>
+      <c r="D139" s="12" t="s">
+        <v>233</v>
       </c>
       <c r="E139" s="1"/>
       <c r="F139" s="1"/>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A140" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B140" s="1">
         <v>10</v>
@@ -4033,13 +4032,13 @@
       <c r="C140" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D140" s="6"/>
+      <c r="D140" s="8"/>
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A141" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B141" s="1">
         <v>10</v>
@@ -4047,13 +4046,13 @@
       <c r="C141" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D141" s="6"/>
+      <c r="D141" s="8"/>
       <c r="E141" s="1"/>
       <c r="F141" s="1"/>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A142" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B142" s="1">
         <v>10</v>
@@ -4061,13 +4060,13 @@
       <c r="C142" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D142" s="6"/>
+      <c r="D142" s="8"/>
       <c r="E142" s="1"/>
       <c r="F142" s="1"/>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A143" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B143" s="1">
         <v>10</v>
@@ -4075,13 +4074,13 @@
       <c r="C143" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D143" s="6"/>
+      <c r="D143" s="8"/>
       <c r="E143" s="1"/>
       <c r="F143" s="1"/>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A144" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B144" s="1">
         <v>10</v>
@@ -4089,13 +4088,13 @@
       <c r="C144" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D144" s="6"/>
+      <c r="D144" s="8"/>
       <c r="E144" s="1"/>
       <c r="F144" s="1"/>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A145" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B145" s="1">
         <v>10</v>
@@ -4103,13 +4102,13 @@
       <c r="C145" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D145" s="6"/>
+      <c r="D145" s="8"/>
       <c r="E145" s="1"/>
       <c r="F145" s="1"/>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A146" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B146" s="1">
         <v>10</v>
@@ -4117,13 +4116,13 @@
       <c r="C146" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D146" s="6"/>
+      <c r="D146" s="8"/>
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A147" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B147" s="1">
         <v>10</v>
@@ -4131,13 +4130,13 @@
       <c r="C147" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D147" s="6"/>
+      <c r="D147" s="8"/>
       <c r="E147" s="1"/>
       <c r="F147" s="1"/>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A148" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B148" s="1">
         <v>10</v>
@@ -4145,13 +4144,13 @@
       <c r="C148" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D148" s="6"/>
+      <c r="D148" s="8"/>
       <c r="E148" s="1"/>
       <c r="F148" s="1"/>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A149" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B149" s="1">
         <v>10</v>
@@ -4159,13 +4158,13 @@
       <c r="C149" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D149" s="6"/>
+      <c r="D149" s="8"/>
       <c r="E149" s="1"/>
       <c r="F149" s="1"/>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A150" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B150" s="1">
         <v>10</v>
@@ -4173,13 +4172,13 @@
       <c r="C150" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D150" s="6"/>
+      <c r="D150" s="8"/>
       <c r="E150" s="1"/>
       <c r="F150" s="1"/>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A151" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B151" s="1">
         <v>10</v>
@@ -4187,13 +4186,13 @@
       <c r="C151" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D151" s="6"/>
+      <c r="D151" s="8"/>
       <c r="E151" s="1"/>
       <c r="F151" s="1"/>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A152" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B152" s="1">
         <v>10</v>
@@ -4201,13 +4200,13 @@
       <c r="C152" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D152" s="6"/>
+      <c r="D152" s="8"/>
       <c r="E152" s="1"/>
       <c r="F152" s="1"/>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A153" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B153" s="1">
         <v>10</v>
@@ -4215,13 +4214,13 @@
       <c r="C153" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D153" s="6"/>
+      <c r="D153" s="8"/>
       <c r="E153" s="1"/>
       <c r="F153" s="1"/>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A154" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B154" s="1">
         <v>10</v>
@@ -4229,13 +4228,13 @@
       <c r="C154" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D154" s="7"/>
+      <c r="D154" s="9"/>
       <c r="E154" s="1"/>
       <c r="F154" s="1"/>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A155" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B155" s="1">
         <v>0</v>
@@ -4243,15 +4242,15 @@
       <c r="C155" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D155" s="5" t="s">
-        <v>237</v>
+      <c r="D155" s="12" t="s">
+        <v>234</v>
       </c>
       <c r="E155" s="1"/>
       <c r="F155" s="1"/>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A156" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B156" s="1">
         <v>0</v>
@@ -4259,7 +4258,7 @@
       <c r="C156" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D156" s="7"/>
+      <c r="D156" s="9"/>
       <c r="E156" s="1"/>
       <c r="F156" s="1"/>
     </row>
@@ -4270,6 +4269,15 @@
     </sortState>
   </autoFilter>
   <mergeCells count="25">
+    <mergeCell ref="F121:F124"/>
+    <mergeCell ref="F93:F120"/>
+    <mergeCell ref="D139:D154"/>
+    <mergeCell ref="D155:D156"/>
+    <mergeCell ref="D125:D138"/>
+    <mergeCell ref="D93:D120"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="D121:D124"/>
     <mergeCell ref="F125:F138"/>
     <mergeCell ref="D30:D31"/>
     <mergeCell ref="D7:D22"/>
@@ -4277,11 +4285,6 @@
     <mergeCell ref="D36:D37"/>
     <mergeCell ref="D34:D35"/>
     <mergeCell ref="D32:D33"/>
-    <mergeCell ref="D139:D154"/>
-    <mergeCell ref="D155:D156"/>
-    <mergeCell ref="D125:D138"/>
-    <mergeCell ref="D93:D120"/>
-    <mergeCell ref="D88:D89"/>
     <mergeCell ref="D59:D66"/>
     <mergeCell ref="E59:E66"/>
     <mergeCell ref="F59:F66"/>
@@ -4290,11 +4293,7 @@
     <mergeCell ref="D74:D75"/>
     <mergeCell ref="F74:F75"/>
     <mergeCell ref="D84:D86"/>
-    <mergeCell ref="D91:D92"/>
     <mergeCell ref="F91:F92"/>
-    <mergeCell ref="D121:D124"/>
-    <mergeCell ref="F121:F124"/>
-    <mergeCell ref="F93:F120"/>
   </mergeCells>
   <phoneticPr fontId="18"/>
   <hyperlinks>
